--- a/2022/SAMSUNG/AUGUST/21.08.2022/SAMSUNG Bank Statement August-2022.xlsx
+++ b/2022/SAMSUNG/AUGUST/21.08.2022/SAMSUNG Bank Statement August-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3504,6 +3504,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3537,12 +3543,6 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3591,6 +3591,57 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3634,57 +3685,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6546,9 +6546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6568,67 +6568,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="408" t="s">
+      <c r="A1" s="410" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="408"/>
-      <c r="C1" s="408"/>
-      <c r="D1" s="408"/>
-      <c r="E1" s="408"/>
-      <c r="F1" s="408"/>
-      <c r="G1" s="408"/>
-      <c r="H1" s="408"/>
-      <c r="I1" s="408"/>
-      <c r="J1" s="408"/>
-      <c r="K1" s="408"/>
-      <c r="L1" s="408"/>
-      <c r="M1" s="408"/>
-      <c r="N1" s="408"/>
-      <c r="O1" s="408"/>
-      <c r="P1" s="408"/>
-      <c r="Q1" s="408"/>
+      <c r="B1" s="410"/>
+      <c r="C1" s="410"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
+      <c r="N1" s="410"/>
+      <c r="O1" s="410"/>
+      <c r="P1" s="410"/>
+      <c r="Q1" s="410"/>
     </row>
     <row r="2" spans="1:24" s="60" customFormat="1" ht="18">
-      <c r="A2" s="409" t="s">
+      <c r="A2" s="411" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="409"/>
-      <c r="C2" s="409"/>
-      <c r="D2" s="409"/>
-      <c r="E2" s="409"/>
-      <c r="F2" s="409"/>
-      <c r="G2" s="409"/>
-      <c r="H2" s="409"/>
-      <c r="I2" s="409"/>
-      <c r="J2" s="409"/>
-      <c r="K2" s="409"/>
-      <c r="L2" s="409"/>
-      <c r="M2" s="409"/>
-      <c r="N2" s="409"/>
-      <c r="O2" s="409"/>
-      <c r="P2" s="409"/>
-      <c r="Q2" s="409"/>
+      <c r="B2" s="411"/>
+      <c r="C2" s="411"/>
+      <c r="D2" s="411"/>
+      <c r="E2" s="411"/>
+      <c r="F2" s="411"/>
+      <c r="G2" s="411"/>
+      <c r="H2" s="411"/>
+      <c r="I2" s="411"/>
+      <c r="J2" s="411"/>
+      <c r="K2" s="411"/>
+      <c r="L2" s="411"/>
+      <c r="M2" s="411"/>
+      <c r="N2" s="411"/>
+      <c r="O2" s="411"/>
+      <c r="P2" s="411"/>
+      <c r="Q2" s="411"/>
     </row>
     <row r="3" spans="1:24" s="61" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="410" t="s">
+      <c r="A3" s="412" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="411"/>
-      <c r="C3" s="411"/>
-      <c r="D3" s="411"/>
-      <c r="E3" s="411"/>
-      <c r="F3" s="411"/>
-      <c r="G3" s="411"/>
-      <c r="H3" s="411"/>
-      <c r="I3" s="411"/>
-      <c r="J3" s="411"/>
-      <c r="K3" s="411"/>
-      <c r="L3" s="411"/>
-      <c r="M3" s="411"/>
-      <c r="N3" s="411"/>
-      <c r="O3" s="411"/>
-      <c r="P3" s="411"/>
-      <c r="Q3" s="412"/>
+      <c r="B3" s="413"/>
+      <c r="C3" s="413"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="413"/>
+      <c r="F3" s="413"/>
+      <c r="G3" s="413"/>
+      <c r="H3" s="413"/>
+      <c r="I3" s="413"/>
+      <c r="J3" s="413"/>
+      <c r="K3" s="413"/>
+      <c r="L3" s="413"/>
+      <c r="M3" s="413"/>
+      <c r="N3" s="413"/>
+      <c r="O3" s="413"/>
+      <c r="P3" s="413"/>
+      <c r="Q3" s="414"/>
       <c r="S3" s="45"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6637,49 +6637,49 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="62" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="413" t="s">
+      <c r="A4" s="415" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="415" t="s">
+      <c r="B4" s="417" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="417" t="s">
+      <c r="C4" s="406" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="417" t="s">
+      <c r="D4" s="406" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="417" t="s">
+      <c r="E4" s="406" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="417" t="s">
+      <c r="F4" s="406" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="417" t="s">
+      <c r="G4" s="406" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="417" t="s">
+      <c r="H4" s="406" t="s">
         <v>153</v>
       </c>
-      <c r="I4" s="417" t="s">
+      <c r="I4" s="406" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="417" t="s">
+      <c r="J4" s="406" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="417" t="s">
+      <c r="K4" s="406" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="417" t="s">
+      <c r="L4" s="406" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="417" t="s">
+      <c r="M4" s="406" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="417" t="s">
+      <c r="N4" s="406" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="406" t="s">
+      <c r="O4" s="408" t="s">
         <v>111</v>
       </c>
       <c r="P4" s="419" t="s">
@@ -6695,21 +6695,21 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:24" s="62" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="414"/>
-      <c r="B5" s="416"/>
-      <c r="C5" s="418"/>
-      <c r="D5" s="418"/>
-      <c r="E5" s="418"/>
-      <c r="F5" s="418"/>
-      <c r="G5" s="418"/>
-      <c r="H5" s="418"/>
-      <c r="I5" s="418"/>
-      <c r="J5" s="418"/>
-      <c r="K5" s="418"/>
-      <c r="L5" s="418"/>
-      <c r="M5" s="418"/>
-      <c r="N5" s="418"/>
-      <c r="O5" s="407"/>
+      <c r="A5" s="416"/>
+      <c r="B5" s="418"/>
+      <c r="C5" s="407"/>
+      <c r="D5" s="407"/>
+      <c r="E5" s="407"/>
+      <c r="F5" s="407"/>
+      <c r="G5" s="407"/>
+      <c r="H5" s="407"/>
+      <c r="I5" s="407"/>
+      <c r="J5" s="407"/>
+      <c r="K5" s="407"/>
+      <c r="L5" s="407"/>
+      <c r="M5" s="407"/>
+      <c r="N5" s="407"/>
+      <c r="O5" s="409"/>
       <c r="P5" s="420"/>
       <c r="Q5" s="118" t="s">
         <v>36</v>
@@ -7328,12 +7328,10 @@
       <c r="G23" s="78">
         <v>50</v>
       </c>
-      <c r="H23" s="78">
-        <v>306</v>
-      </c>
+      <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K23" s="78"/>
       <c r="L23" s="78"/>
@@ -7345,7 +7343,7 @@
       <c r="P23" s="80"/>
       <c r="Q23" s="74">
         <f t="shared" si="0"/>
-        <v>662</v>
+        <v>386</v>
       </c>
       <c r="R23" s="84"/>
       <c r="S23" s="6"/>
@@ -7711,7 +7709,7 @@
       </c>
       <c r="H37" s="94">
         <f t="shared" si="1"/>
-        <v>426</v>
+        <v>120</v>
       </c>
       <c r="I37" s="94">
         <f t="shared" si="1"/>
@@ -7719,7 +7717,7 @@
       </c>
       <c r="J37" s="94">
         <f t="shared" si="1"/>
-        <v>1375</v>
+        <v>1405</v>
       </c>
       <c r="K37" s="94">
         <f t="shared" si="1"/>
@@ -7747,7 +7745,7 @@
       </c>
       <c r="Q37" s="96">
         <f>SUM(Q6:Q36)</f>
-        <v>28722</v>
+        <v>28446</v>
       </c>
       <c r="S37" s="234"/>
       <c r="T37" s="234"/>
@@ -9756,6 +9754,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9772,9 +9773,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33708,7 +33706,7 @@
   </sheetPr>
   <dimension ref="A1:R214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E31" sqref="A1:E31"/>
     </sheetView>
   </sheetViews>
@@ -33735,28 +33733,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="435" t="s">
+      <c r="A1" s="452" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="436"/>
-      <c r="C1" s="436"/>
-      <c r="D1" s="436"/>
-      <c r="E1" s="437"/>
+      <c r="B1" s="453"/>
+      <c r="C1" s="453"/>
+      <c r="D1" s="453"/>
+      <c r="E1" s="454"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="450"/>
-      <c r="J1" s="450"/>
-      <c r="K1" s="450"/>
+      <c r="I1" s="447"/>
+      <c r="J1" s="447"/>
+      <c r="K1" s="447"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="444" t="s">
+      <c r="A2" s="461" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="445"/>
-      <c r="C2" s="445"/>
-      <c r="D2" s="445"/>
-      <c r="E2" s="446"/>
+      <c r="B2" s="462"/>
+      <c r="C2" s="462"/>
+      <c r="D2" s="462"/>
+      <c r="E2" s="463"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33777,13 +33775,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="438" t="s">
+      <c r="A3" s="455" t="s">
         <v>272</v>
       </c>
-      <c r="B3" s="439"/>
-      <c r="C3" s="439"/>
-      <c r="D3" s="439"/>
-      <c r="E3" s="440"/>
+      <c r="B3" s="456"/>
+      <c r="C3" s="456"/>
+      <c r="D3" s="456"/>
+      <c r="E3" s="457"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -33810,13 +33808,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="447" t="s">
+      <c r="A4" s="464" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="448"/>
-      <c r="C4" s="448"/>
-      <c r="D4" s="448"/>
-      <c r="E4" s="449"/>
+      <c r="B4" s="465"/>
+      <c r="C4" s="465"/>
+      <c r="D4" s="465"/>
+      <c r="E4" s="466"/>
       <c r="F4" s="5"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -34300,11 +34298,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="279"/>
-      <c r="I17" s="451" t="s">
+      <c r="I17" s="440" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="451"/>
-      <c r="K17" s="451"/>
+      <c r="J17" s="440"/>
+      <c r="K17" s="440"/>
       <c r="L17" s="310">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -34327,11 +34325,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="279"/>
-      <c r="I18" s="452" t="s">
+      <c r="I18" s="448" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="452"/>
-      <c r="K18" s="452"/>
+      <c r="J18" s="448"/>
+      <c r="K18" s="448"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -34343,21 +34341,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="441" t="s">
+      <c r="A19" s="458" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="442"/>
-      <c r="C19" s="442"/>
-      <c r="D19" s="442"/>
-      <c r="E19" s="443"/>
+      <c r="B19" s="459"/>
+      <c r="C19" s="459"/>
+      <c r="D19" s="459"/>
+      <c r="E19" s="460"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="459" t="s">
+      <c r="I19" s="443" t="s">
         <v>161</v>
       </c>
-      <c r="J19" s="459"/>
-      <c r="K19" s="459"/>
+      <c r="J19" s="443"/>
+      <c r="K19" s="443"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -34385,11 +34383,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="453" t="s">
+      <c r="I20" s="436" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="453"/>
-      <c r="K20" s="453"/>
+      <c r="J20" s="436"/>
+      <c r="K20" s="436"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -34416,11 +34414,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="454" t="s">
+      <c r="I21" s="449" t="s">
         <v>160</v>
       </c>
-      <c r="J21" s="455"/>
-      <c r="K21" s="456"/>
+      <c r="J21" s="450"/>
+      <c r="K21" s="451"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -34445,11 +34443,11 @@
       <c r="E22" s="244">
         <v>300679</v>
       </c>
-      <c r="I22" s="459" t="s">
+      <c r="I22" s="443" t="s">
         <v>163</v>
       </c>
-      <c r="J22" s="459"/>
-      <c r="K22" s="459"/>
+      <c r="J22" s="443"/>
+      <c r="K22" s="443"/>
       <c r="L22" s="339">
         <v>20000</v>
       </c>
@@ -34474,11 +34472,11 @@
       <c r="E23" s="244">
         <v>349519</v>
       </c>
-      <c r="I23" s="460" t="s">
+      <c r="I23" s="437" t="s">
         <v>184</v>
       </c>
-      <c r="J23" s="461"/>
-      <c r="K23" s="462"/>
+      <c r="J23" s="438"/>
+      <c r="K23" s="439"/>
       <c r="L23" s="339">
         <v>40000</v>
       </c>
@@ -34503,11 +34501,11 @@
       <c r="E24" s="302">
         <v>264467</v>
       </c>
-      <c r="I24" s="459" t="s">
+      <c r="I24" s="443" t="s">
         <v>223</v>
       </c>
-      <c r="J24" s="459"/>
-      <c r="K24" s="459"/>
+      <c r="J24" s="443"/>
+      <c r="K24" s="443"/>
       <c r="L24" s="324">
         <v>30000</v>
       </c>
@@ -34532,11 +34530,11 @@
       <c r="E25" s="244">
         <v>68955</v>
       </c>
-      <c r="I25" s="451" t="s">
+      <c r="I25" s="440" t="s">
         <v>164</v>
       </c>
-      <c r="J25" s="451"/>
-      <c r="K25" s="451"/>
+      <c r="J25" s="440"/>
+      <c r="K25" s="440"/>
       <c r="L25" s="310">
         <f>L17-L18-L19-L20-L21-L22-L23-L24</f>
         <v>98150</v>
@@ -34602,13 +34600,13 @@
       <c r="E28" s="244">
         <v>31230</v>
       </c>
-      <c r="I28" s="463" t="s">
+      <c r="I28" s="444" t="s">
         <v>232</v>
       </c>
-      <c r="J28" s="464"/>
-      <c r="K28" s="464"/>
-      <c r="L28" s="464"/>
-      <c r="M28" s="465"/>
+      <c r="J28" s="445"/>
+      <c r="K28" s="445"/>
+      <c r="L28" s="445"/>
+      <c r="M28" s="446"/>
     </row>
     <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="245" t="s">
@@ -34624,11 +34622,11 @@
       <c r="E29" s="244">
         <v>30000</v>
       </c>
-      <c r="I29" s="457" t="s">
+      <c r="I29" s="441" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="457"/>
-      <c r="K29" s="458"/>
+      <c r="J29" s="441"/>
+      <c r="K29" s="442"/>
       <c r="L29" s="359">
         <v>213170</v>
       </c>
@@ -34653,11 +34651,11 @@
       <c r="E30" s="244">
         <v>300000</v>
       </c>
-      <c r="I30" s="466" t="s">
+      <c r="I30" s="435" t="s">
         <v>155</v>
       </c>
-      <c r="J30" s="453"/>
-      <c r="K30" s="453"/>
+      <c r="J30" s="436"/>
+      <c r="K30" s="436"/>
       <c r="L30" s="357">
         <v>79500</v>
       </c>
@@ -34684,11 +34682,11 @@
       <c r="E31" s="395">
         <v>16000</v>
       </c>
-      <c r="I31" s="466" t="s">
+      <c r="I31" s="435" t="s">
         <v>155</v>
       </c>
-      <c r="J31" s="453"/>
-      <c r="K31" s="453"/>
+      <c r="J31" s="436"/>
+      <c r="K31" s="436"/>
       <c r="L31" s="357">
         <v>47500</v>
       </c>
@@ -34707,11 +34705,11 @@
       <c r="C32" s="5"/>
       <c r="D32" s="371"/>
       <c r="E32" s="372"/>
-      <c r="I32" s="466" t="s">
+      <c r="I32" s="435" t="s">
         <v>155</v>
       </c>
-      <c r="J32" s="453"/>
-      <c r="K32" s="453"/>
+      <c r="J32" s="436"/>
+      <c r="K32" s="436"/>
       <c r="L32" s="357">
         <v>50000</v>
       </c>
@@ -34730,9 +34728,9 @@
       <c r="C33" s="5"/>
       <c r="D33" s="371"/>
       <c r="E33" s="372"/>
-      <c r="I33" s="460"/>
-      <c r="J33" s="461"/>
-      <c r="K33" s="462"/>
+      <c r="I33" s="437"/>
+      <c r="J33" s="438"/>
+      <c r="K33" s="439"/>
       <c r="L33" s="357"/>
       <c r="M33" s="357"/>
       <c r="N33" s="7"/>
@@ -34742,11 +34740,11 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="1:18" ht="15.75">
-      <c r="I34" s="451" t="s">
+      <c r="I34" s="440" t="s">
         <v>97</v>
       </c>
-      <c r="J34" s="451"/>
-      <c r="K34" s="451"/>
+      <c r="J34" s="440"/>
+      <c r="K34" s="440"/>
       <c r="L34" s="356">
         <f>L29-L30-L31-L32-L33</f>
         <v>36170</v>
@@ -37416,11 +37414,16 @@
     <sortCondition ref="A20"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="I19:K19"/>
@@ -37428,16 +37431,11 @@
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I30:K30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
